--- a/Autuações_SEI__Covid.xlsx
+++ b/Autuações_SEI__Covid.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel F. da Silva\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC183C9-9671-4C7E-B0E8-C077AFBB7B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7792D9-AA6D-403B-B886-258D62C75281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BD" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="BD" sheetId="1" r:id="rId1"/>
     <sheet name="TabsDinam" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="5" r:id="rId3"/>
     <sheet name="OutrasAutuações" sheetId="7" state="hidden" r:id="rId4"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="678">
   <si>
     <t>PROC. SEI</t>
   </si>
@@ -3024,7 +3024,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3556,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,7 +4007,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4873,7 +4873,7 @@
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>197</a:t>
+            <a:t>198</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000">
             <a:solidFill>
@@ -5173,7 +5173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>197</a:t>
+            <a:t>198</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5866,7 +5866,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="CMPA" refreshedDate="43983.746734375003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="197" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.347459490738" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="198" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
@@ -6020,7 +6020,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="197">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
   <r>
     <d v="2020-03-20T00:00:00"/>
     <s v="20.0.000032183-5"/>
@@ -8582,48 +8582,24 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <d v="2020-06-01T00:00:00"/>
+    <s v="20.0.000049185-4  "/>
+    <s v="475/2020"/>
+    <x v="39"/>
+    <x v="2"/>
+    <s v="CHURRASQUINHO TEDY"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8659,8 +8635,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A81:B122" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9212,8 +9188,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A41:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9388,8 +9364,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9458,8 +9434,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -9528,9 +9504,46 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K198" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K198" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K199" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K199" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROC. PÚBLICO _x000a_GERADO EM " dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROC. SEI" dataDxfId="9"/>
@@ -9869,11 +9882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15729,6 +15742,33 @@
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
     </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D199" s="9">
+        <v>43982</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15749,8 +15789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -15789,7 +15829,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="13">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -15797,7 +15837,7 @@
         <v>382</v>
       </c>
       <c r="B8" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15967,7 +16007,7 @@
         <v>28</v>
       </c>
       <c r="B55" s="13">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -15975,7 +16015,7 @@
         <v>382</v>
       </c>
       <c r="B56" s="13">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15991,7 +16031,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16340,7 +16380,7 @@
         <v>43982</v>
       </c>
       <c r="B121" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -16348,7 +16388,7 @@
         <v>382</v>
       </c>
       <c r="B122" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -16361,7 +16401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="CW7" sqref="CW7"/>
     </sheetView>
   </sheetViews>

--- a/Autuações_SEI__Covid.xlsx
+++ b/Autuações_SEI__Covid.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel F. da Silva\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7792D9-AA6D-403B-B886-258D62C75281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E72FED-BD8D-4110-8472-D549660CEC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BD" sheetId="1" r:id="rId1"/>
+    <sheet name="BD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="TabsDinam" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="5" r:id="rId3"/>
     <sheet name="OutrasAutuações" sheetId="7" state="hidden" r:id="rId4"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="678">
   <si>
     <t>PROC. SEI</t>
   </si>
@@ -3024,7 +3024,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3556,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,7 +4007,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4873,7 +4873,7 @@
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>198</a:t>
+            <a:t>197</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000">
             <a:solidFill>
@@ -5173,7 +5173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>198</a:t>
+            <a:t>197</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5866,7 +5866,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.347459490738" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="198" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.362138310185" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="197" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
@@ -6020,7 +6020,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="197">
   <r>
     <d v="2020-03-20T00:00:00"/>
     <s v="20.0.000032183-5"/>
@@ -8582,60 +8582,10 @@
     <m/>
     <m/>
   </r>
-  <r>
-    <d v="2020-06-01T00:00:00"/>
-    <s v="20.0.000049185-4  "/>
-    <s v="475/2020"/>
-    <x v="39"/>
-    <x v="2"/>
-    <s v="CHURRASQUINHO TEDY"/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Nº AUTO DE _x000a_INFRAÇÃO" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A81:B122" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -9188,7 +9138,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A41:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -9364,7 +9314,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -9434,7 +9384,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -9504,7 +9454,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="11">
@@ -9541,9 +9491,46 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Nº AUTO DE _x000a_INFRAÇÃO" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K199" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K199" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K198" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K198" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROC. PÚBLICO _x000a_GERADO EM " dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROC. SEI" dataDxfId="9"/>
@@ -9882,11 +9869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C203" sqref="C203"/>
+      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15742,33 +15729,6 @@
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" s="6">
-        <v>43983</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="D199" s="9">
-        <v>43982</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15789,7 +15749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -15829,7 +15789,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="13">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -15837,7 +15797,7 @@
         <v>382</v>
       </c>
       <c r="B8" s="13">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16007,7 +15967,7 @@
         <v>28</v>
       </c>
       <c r="B55" s="13">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -16015,7 +15975,7 @@
         <v>382</v>
       </c>
       <c r="B56" s="13">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16031,7 +15991,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16380,7 +16340,7 @@
         <v>43982</v>
       </c>
       <c r="B121" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -16388,7 +16348,7 @@
         <v>382</v>
       </c>
       <c r="B122" s="13">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -16401,7 +16361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="CW7" sqref="CW7"/>
     </sheetView>
   </sheetViews>

--- a/Autuações_SEI__Covid.xlsx
+++ b/Autuações_SEI__Covid.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel F. da Silva\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E72FED-BD8D-4110-8472-D549660CEC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E59013-7BA4-408D-9661-64FCB170C8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="35" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="682">
   <si>
     <t>PROC. SEI</t>
   </si>
@@ -2237,6 +2237,18 @@
   </si>
   <si>
     <t>20.0.000049185-4  </t>
+  </si>
+  <si>
+    <t>20.0.0000496538-8</t>
+  </si>
+  <si>
+    <t>476/2020</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>PONTO DOS MÓVEIS</t>
   </si>
 </sst>
 </file>
@@ -2996,9 +3008,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TabsDinam!$A$5:$A$8</c:f>
+              <c:f>TabsDinam!$A$5:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>MARÇO</c:v>
                 </c:pt>
@@ -3008,15 +3020,18 @@
                 <c:pt idx="2">
                   <c:v>MAIO</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>JUNHO</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TabsDinam!$B$5:$B$8</c:f>
+              <c:f>TabsDinam!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3025,6 +3040,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,49 +3480,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TabsDinam!$A$42:$A$56</c:f>
+              <c:f>TabsDinam!$A$42:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>PETRÓPOLIS</c:v>
+                  <c:v>CAMPO NOVO</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CAMPO NOVO</c:v>
+                  <c:v>MOINHOS DE VENTO</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SÃO SEBASTIÃO</c:v>
+                  <c:v>MENINO DEUS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PASSO D'AREIA</c:v>
+                  <c:v>FLORESTA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>IPANEMA</c:v>
+                  <c:v>LOMBA DO PINHEIRO</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MOINHOS DE VENTO</c:v>
+                  <c:v>AGRONOMIA</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MENINO DEUS</c:v>
+                  <c:v>CAVALHADA</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>FLORESTA</c:v>
+                  <c:v>CENTRO HISTÓRICO</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AGRONOMIA</c:v>
+                  <c:v>PARTENON</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>LOMBA DO PINHEIRO</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>CAVALHADA</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>CENTRO HISTÓRICO</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PARTENON</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>RESTINGA</c:v>
                 </c:pt>
               </c:strCache>
@@ -3512,50 +3518,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TabsDinam!$B$42:$B$56</c:f>
+              <c:f>TabsDinam!$B$42:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -3757,9 +3751,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TabsDinam!$A$82:$A$122</c:f>
+              <c:f>TabsDinam!$A$82:$A$123</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>19/03/2020</c:v>
                 </c:pt>
@@ -3880,15 +3874,18 @@
                 <c:pt idx="39">
                   <c:v>31/05/2020</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>01/06/2020</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TabsDinam!$B$82:$B$122</c:f>
+              <c:f>TabsDinam!$B$82:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4007,6 +4004,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4820,7 +4820,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="TabsDinam!B8">
+    <xdr:sp macro="" textlink="TabsDinam!B9">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
@@ -4862,7 +4862,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:fld id="{2842CF17-BD24-46F2-A6E0-21CFABF3158F}" type="TxLink">
+          <a:pPr marL="0" indent="0"/>
+          <a:fld id="{9B2EE57F-D8A2-4785-A9E6-04F54B24BF13}" type="TxLink">
             <a:rPr lang="en-US" sz="5000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -4871,11 +4872,13 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:pPr/>
-            <a:t>197</a:t>
+            <a:pPr marL="0" indent="0"/>
+            <a:t>198</a:t>
           </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="5000">
+          <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
@@ -4883,6 +4886,8 @@
               </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5083,7 +5088,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>01/06/2020</a:t>
+            <a:t>02/06/2020</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5097,7 +5102,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>17:55</a:t>
+            <a:t>18h30</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5173,7 +5178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>197</a:t>
+            <a:t>198</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5866,7 +5871,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.362138310185" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="197" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.558998495369" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="198" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
@@ -5881,7 +5886,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="487862" maxValue="487862"/>
     </cacheField>
     <cacheField name="DATA DA AUTUAÇÃO" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-19T00:00:00" maxDate="2020-06-01T00:00:00" count="40">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-19T00:00:00" maxDate="2020-06-02T00:00:00" count="41">
         <d v="2020-03-19T00:00:00"/>
         <d v="2020-03-20T00:00:00"/>
         <d v="2020-03-23T00:00:00"/>
@@ -5922,13 +5927,15 @@
         <d v="2020-05-28T00:00:00"/>
         <d v="2020-05-29T00:00:00"/>
         <d v="2020-05-31T00:00:00"/>
+        <d v="2020-06-01T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MÊS" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="MARÇO"/>
         <s v="ABRIL"/>
         <s v="MAIO"/>
+        <s v="JUNHO"/>
         <m u="1"/>
       </sharedItems>
     </cacheField>
@@ -6020,7 +6027,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="197">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
   <r>
     <d v="2020-03-20T00:00:00"/>
     <s v="20.0.000032183-5"/>
@@ -8582,18 +8589,414 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <d v="2020-06-01T00:00:00"/>
+    <s v="20.0.0000496538-8"/>
+    <s v="476/2020"/>
+    <x v="40"/>
+    <x v="3"/>
+    <s v="PONTO DOS MÓVEIS"/>
+    <m/>
+    <x v="48"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A81:B122" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A41:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="60">
+        <item m="1" x="56"/>
+        <item m="1" x="58"/>
+        <item x="36"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="33"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item m="1" x="55"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item m="1" x="57"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Nº AUTO DE _x000a_INFRAÇÃO" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A81:B123" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="41">
+      <items count="42">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8634,6 +9037,7 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
+        <item x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8648,7 +9052,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -8768,6 +9172,9 @@
     </i>
     <i>
       <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
     </i>
     <i t="grand">
       <x/>
@@ -9138,399 +9545,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A41:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="60">
-        <item m="1" x="56"/>
-        <item m="1" x="58"/>
-        <item x="36"/>
-        <item x="13"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="33"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="24"/>
-        <item x="31"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="28"/>
-        <item x="25"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item m="1" x="55"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item m="1" x="57"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="7" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Nº AUTO DE _x000a_INFRAÇÃO" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K198" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K198" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K199" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K199" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROC. PÚBLICO _x000a_GERADO EM " dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROC. SEI" dataDxfId="9"/>
@@ -9869,11 +9886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F202" sqref="F202"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15729,7 +15746,35 @@
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
     </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D199" s="9">
+        <v>43983</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="b/UAX0n0cyxyOteWq955DBVo91d/zPgkjUw6jTLJSFyUWC7NYdAq7+Xfo9CWItD371N/WF4hNE/S/Uy8W4pnWQ==" saltValue="zlvD1dHq7wE4XRceOOXhbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -15741,15 +15786,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:B122"/>
+  <dimension ref="A3:B123"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -15794,10 +15839,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="13">
-        <v>197</v>
+      <c r="B9" s="13">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15860,122 +15913,90 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>64</v>
+        <v>537</v>
       </c>
       <c r="B42" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>537</v>
+        <v>8</v>
       </c>
       <c r="B43" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B44" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B45" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="B46" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
-        <v>8</v>
+        <v>338</v>
       </c>
       <c r="B47" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="B48" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B49" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="B50" s="13">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="B51" s="13">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="B52" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="B56" s="13">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15991,7 +16012,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16344,14 +16365,23 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="37">
+        <v>43983</v>
+      </c>
+      <c r="B122" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B122" s="13">
-        <v>197</v>
+      <c r="B123" s="13">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="GuT/MZWL6tZ6Da9gimzq5wPohq/1c/X4Pdd+HZA4zkyhl1OLqW6Oz0YZZ9bD6J1QAwWrk1ZvSHmmD6lvN7T/yQ==" saltValue="EuTqxJHRQekgNPkGB7W74A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
@@ -16362,12 +16392,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="CW7" sqref="CW7"/>
+      <selection activeCell="BW34" sqref="BW34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="zINxggLwKJJaaqAfo5tDHIQ1rSq3lEtsVXDVe6ASB2D2dWPNnJGNKhTqHB0vQTM+bPhIbW/XdYNmu335BlxfyA==" saltValue="48+xMFFCnr9Y1gHC3e0GBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wxl9CHHvfIxqLsrgpcGts81oW1YLVUcNLxPh6m1FF11rMwWtESMmtjofuEV4/gN8s6MW4unVg268DPrtmTp0Kg==" saltValue="zGL/LvkaSrc8IjfSR5klCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Autuações_SEI__Covid.xlsx
+++ b/Autuações_SEI__Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel F. da Silva\Documents\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E59013-7BA4-408D-9661-64FCB170C8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B58AE-0197-405C-94E4-D89BAC704C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="688">
   <si>
     <t>PROC. SEI</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">BAR DO GALERA </t>
-  </si>
-  <si>
-    <t>20.0.000039129-9</t>
   </si>
   <si>
     <t>257/2020</t>
@@ -1656,9 +1653,6 @@
     <t>394/2020</t>
   </si>
   <si>
-    <t>20.0.000044701-4</t>
-  </si>
-  <si>
     <t>378/2020</t>
   </si>
   <si>
@@ -2249,6 +2243,32 @@
   </si>
   <si>
     <t>PONTO DOS MÓVEIS</t>
+  </si>
+  <si>
+    <t>SOARES ATACADO E VAREJO</t>
+  </si>
+  <si>
+    <t>479/2020</t>
+  </si>
+  <si>
+    <t>20.0.000049702-0</t>
+  </si>
+  <si>
+    <t>FABIO ROQUE DA CAS</t>
+  </si>
+  <si>
+    <t>482/2020</t>
+  </si>
+  <si>
+    <t>20.0.000049705-4</t>
+  </si>
+  <si>
+    <t>20.0.000039129-9
+20.0.000041870-7</t>
+  </si>
+  <si>
+    <t>20.0.000044701-4
+20.0.000041870-7</t>
   </si>
 </sst>
 </file>
@@ -2524,7 +2544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2652,6 +2672,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2669,9 +2692,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -3042,7 +3063,7 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3496,10 +3517,10 @@
                   <c:v>FLORESTA</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>LOMBA DO PINHEIRO</c:v>
+                  <c:v>AGRONOMIA</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AGRONOMIA</c:v>
+                  <c:v>LOMBA DO PINHEIRO</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>CAVALHADA</c:v>
@@ -3538,7 +3559,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12</c:v>
@@ -3550,7 +3571,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,9 +3772,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TabsDinam!$A$82:$A$123</c:f>
+              <c:f>TabsDinam!$A$82:$A$124</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>19/03/2020</c:v>
                 </c:pt>
@@ -3877,15 +3898,18 @@
                 <c:pt idx="40">
                   <c:v>01/06/2020</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>02/06/2020</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TabsDinam!$B$82:$B$123</c:f>
+              <c:f>TabsDinam!$B$82:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4008,6 +4032,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4876,7 +4903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>198</a:t>
+            <a:t>200</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5088,7 +5115,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>02/06/2020</a:t>
+            <a:t>03/06/2020</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5178,7 +5205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>198</a:t>
+            <a:t>200</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5548,7 +5575,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>31</a:t>
+            <a:t>58</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="5000" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -5871,13 +5898,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43985.558998495369" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="198" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel F. da Silva" refreshedDate="43986.64383645833" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="200" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela3"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="PROC. PÚBLICO _x000a_GERADO EM " numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-20T00:00:00" maxDate="2020-06-02T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-20T00:00:00" maxDate="2020-06-04T00:00:00"/>
     </cacheField>
     <cacheField name="PROC. SEI" numFmtId="0">
       <sharedItems/>
@@ -5886,7 +5913,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="487862" maxValue="487862"/>
     </cacheField>
     <cacheField name="DATA DA AUTUAÇÃO" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-19T00:00:00" maxDate="2020-06-02T00:00:00" count="41">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-03-19T00:00:00" maxDate="2020-06-03T00:00:00" count="42">
         <d v="2020-03-19T00:00:00"/>
         <d v="2020-03-20T00:00:00"/>
         <d v="2020-03-23T00:00:00"/>
@@ -5928,6 +5955,7 @@
         <d v="2020-05-29T00:00:00"/>
         <d v="2020-05-31T00:00:00"/>
         <d v="2020-06-01T00:00:00"/>
+        <d v="2020-06-02T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MÊS" numFmtId="0">
@@ -6027,7 +6055,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
   <r>
     <d v="2020-03-20T00:00:00"/>
     <s v="20.0.000032183-5"/>
@@ -8602,175 +8630,37 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <d v="2020-06-03T00:00:00"/>
+    <s v="20.0.000049702-0"/>
+    <s v="479/2020"/>
+    <x v="41"/>
+    <x v="3"/>
+    <s v="SOARES ATACADO E VAREJO"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2020-06-03T00:00:00"/>
+    <s v="20.0.000049705-4"/>
+    <s v="482/2020"/>
+    <x v="41"/>
+    <x v="3"/>
+    <s v="FABIO ROQUE DA CAS"/>
+    <m/>
+    <x v="34"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A41:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="60">
-        <item m="1" x="56"/>
-        <item m="1" x="58"/>
-        <item x="36"/>
-        <item x="13"/>
-        <item x="21"/>
-        <item x="7"/>
-        <item x="27"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="33"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="24"/>
-        <item x="31"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="3"/>
-        <item x="18"/>
-        <item x="35"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="28"/>
-        <item x="25"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="19"/>
-        <item x="16"/>
-        <item m="1" x="55"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item m="1" x="57"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="7" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000005000000}" name="Td_CautelarXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A21:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8840,8 +8730,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Td_AutoXMês" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8914,8 +8804,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A71:A72" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8951,8 +8841,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A62:A63" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8988,15 +8878,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A81:B123" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Td_AutoXDia" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A81:B124" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="42">
+      <items count="43">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9038,6 +8928,7 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9052,7 +8943,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -9175,6 +9066,9 @@
     </i>
     <i>
       <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
     </i>
     <i t="grand">
       <x/>
@@ -9545,9 +9439,173 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Td_AutoXBairros" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A41:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="60">
+        <item m="1" x="56"/>
+        <item m="1" x="58"/>
+        <item x="36"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="33"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item m="1" x="55"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item m="1" x="57"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de PROC. SEI" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="7" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K199" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K199" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="A1:K201" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PROC. PÚBLICO _x000a_GERADO EM " dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROC. SEI" dataDxfId="9"/>
@@ -9558,8 +9616,8 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REICIDENTES" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BAIRRO" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="AUTO DE _x000a_INTERDIÇÃO_x000a_CUATELAR" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEFESA PROTOCOLADA" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DATA DA DEFESA" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DEFESA PROTOCOLADA" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DATA DA DEFESA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9886,11 +9944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9912,13 +9970,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -9927,22 +9985,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -10032,10 +10090,10 @@
       </c>
       <c r="K4" s="2"/>
       <c r="N4" s="44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P4" s="48" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10068,7 +10126,7 @@
       <c r="K5" s="2"/>
       <c r="N5" s="43">
         <f>SUM(Tabela3[DEFESA PROTOCOLADA])</f>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="P5" s="43">
         <f>SUM(Tabela3[REICIDENTES])</f>
@@ -10462,15 +10520,15 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43943</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="3">
         <v>43939</v>
@@ -10479,11 +10537,11 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2">
@@ -10498,10 +10556,10 @@
         <v>43943</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="3">
         <v>43939</v>
@@ -10510,11 +10568,11 @@
         <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2">
@@ -10529,10 +10587,10 @@
         <v>43944</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="3">
         <v>43939</v>
@@ -10541,11 +10599,11 @@
         <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2">
@@ -10560,10 +10618,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="3">
         <v>43940</v>
@@ -10572,7 +10630,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
@@ -10589,10 +10647,10 @@
         <v>43943</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="3">
         <v>43941</v>
@@ -10601,7 +10659,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
@@ -10618,10 +10676,10 @@
         <v>43943</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="3">
         <v>43941</v>
@@ -10630,11 +10688,11 @@
         <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2">
@@ -10649,10 +10707,10 @@
         <v>43943</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="9">
         <v>43941</v>
@@ -10661,7 +10719,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
@@ -10678,10 +10736,10 @@
         <v>43943</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D26" s="3">
         <v>43941</v>
@@ -10690,7 +10748,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
@@ -10709,10 +10767,10 @@
         <v>43944</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D27" s="3">
         <v>43941</v>
@@ -10721,11 +10779,11 @@
         <v>40</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="2">
@@ -10738,10 +10796,10 @@
         <v>43944</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D28" s="3">
         <v>43941</v>
@@ -10750,15 +10808,15 @@
         <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -10767,10 +10825,10 @@
         <v>43944</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D29" s="3">
         <v>43941</v>
@@ -10779,11 +10837,11 @@
         <v>40</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2">
@@ -10798,10 +10856,10 @@
         <v>43944</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D30" s="3">
         <v>43941</v>
@@ -10810,7 +10868,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
@@ -10829,10 +10887,10 @@
         <v>43944</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D31" s="9">
         <v>43941</v>
@@ -10841,7 +10899,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
@@ -10858,10 +10916,10 @@
         <v>43945</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D32" s="3">
         <v>43941</v>
@@ -10870,7 +10928,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="45">
         <v>1</v>
@@ -10891,10 +10949,10 @@
         <v>43948</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D33" s="3">
         <v>43941</v>
@@ -10903,7 +10961,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="2" t="s">
@@ -10922,10 +10980,10 @@
         <v>43943</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D34" s="3">
         <v>43942</v>
@@ -10934,7 +10992,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
@@ -10951,10 +11009,10 @@
         <v>43944</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D35" s="3">
         <v>43942</v>
@@ -10963,11 +11021,11 @@
         <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
@@ -10982,10 +11040,10 @@
         <v>43944</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="3">
         <v>43942</v>
@@ -10994,7 +11052,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
@@ -11002,7 +11060,7 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -11011,10 +11069,10 @@
         <v>43944</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D37" s="3">
         <v>43942</v>
@@ -11023,7 +11081,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
@@ -11040,10 +11098,10 @@
         <v>43944</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D38" s="3">
         <v>43944</v>
@@ -11052,7 +11110,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
@@ -11071,10 +11129,10 @@
         <v>43944</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D39" s="3">
         <v>43944</v>
@@ -11083,11 +11141,11 @@
         <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="2">
@@ -11102,10 +11160,10 @@
         <v>43945</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D40" s="9">
         <v>43944</v>
@@ -11114,7 +11172,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
@@ -11122,7 +11180,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -11131,10 +11189,10 @@
         <v>43945</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D41" s="3">
         <v>43944</v>
@@ -11143,7 +11201,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
@@ -11151,7 +11209,7 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -11160,10 +11218,10 @@
         <v>43948</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D42" s="3">
         <v>43944</v>
@@ -11172,7 +11230,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
@@ -11189,10 +11247,10 @@
         <v>43945</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D43" s="3">
         <v>43945</v>
@@ -11201,7 +11259,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
@@ -11220,10 +11278,10 @@
         <v>43949</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D44" s="3">
         <v>43945</v>
@@ -11232,11 +11290,11 @@
         <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="2">
@@ -11251,10 +11309,10 @@
         <v>43949</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D45" s="3">
         <v>43945</v>
@@ -11263,11 +11321,11 @@
         <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="2">
@@ -11280,10 +11338,10 @@
         <v>43949</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D46" s="3">
         <v>43945</v>
@@ -11292,7 +11350,7 @@
         <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
@@ -11309,10 +11367,10 @@
         <v>43949</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="3">
         <v>43945</v>
@@ -11321,7 +11379,7 @@
         <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
@@ -11329,7 +11387,7 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2"/>
     </row>
@@ -11338,10 +11396,10 @@
         <v>43950</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D48" s="3">
         <v>43950</v>
@@ -11350,15 +11408,15 @@
         <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2"/>
     </row>
@@ -11367,10 +11425,10 @@
         <v>43950</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D49" s="3">
         <v>43950</v>
@@ -11379,11 +11437,11 @@
         <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="2">
@@ -11398,10 +11456,10 @@
         <v>43951</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D50" s="3">
         <v>43950</v>
@@ -11410,7 +11468,7 @@
         <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
@@ -11427,10 +11485,10 @@
         <v>43951</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="3">
         <v>43950</v>
@@ -11439,7 +11497,7 @@
         <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
@@ -11447,7 +11505,7 @@
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2"/>
     </row>
@@ -11456,10 +11514,10 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D52" s="3">
         <v>43950</v>
@@ -11468,11 +11526,11 @@
         <v>40</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="2">
@@ -11485,10 +11543,10 @@
         <v>43951</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D53" s="3">
         <v>43950</v>
@@ -11497,7 +11555,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
@@ -11516,10 +11574,10 @@
         <v>43951</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D54" s="3">
         <v>43950</v>
@@ -11528,7 +11586,7 @@
         <v>40</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
@@ -11545,10 +11603,10 @@
         <v>43951</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D55" s="3">
         <v>43950</v>
@@ -11557,7 +11615,7 @@
         <v>40</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
@@ -11565,7 +11623,7 @@
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2"/>
     </row>
@@ -11574,10 +11632,10 @@
         <v>43955</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D56" s="3">
         <v>43951</v>
@@ -11586,11 +11644,11 @@
         <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I56" s="4">
         <v>1</v>
@@ -11607,10 +11665,10 @@
         <v>43955</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D57" s="3">
         <v>43951</v>
@@ -11619,11 +11677,11 @@
         <v>40</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="2">
@@ -11638,10 +11696,10 @@
         <v>43955</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D58" s="3">
         <v>43951</v>
@@ -11650,11 +11708,11 @@
         <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="2">
@@ -11669,10 +11727,10 @@
         <v>43955</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D59" s="3">
         <v>43951</v>
@@ -11681,11 +11739,11 @@
         <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="2">
@@ -11698,10 +11756,10 @@
         <v>43955</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D60" s="3">
         <v>43951</v>
@@ -11710,11 +11768,11 @@
         <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I60" s="4">
         <v>1</v>
@@ -11729,10 +11787,10 @@
         <v>43955</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D61" s="3">
         <v>43953</v>
@@ -11741,11 +11799,11 @@
         <v>22</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I61" s="4">
         <v>1</v>
@@ -11760,10 +11818,10 @@
         <v>43957</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D62" s="3">
         <v>43955</v>
@@ -11772,15 +11830,15 @@
         <v>22</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2"/>
     </row>
@@ -11789,10 +11847,10 @@
         <v>43957</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D63" s="3">
         <v>43955</v>
@@ -11801,11 +11859,11 @@
         <v>22</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="2">
@@ -11818,10 +11876,10 @@
         <v>43957</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D64" s="3">
         <v>43955</v>
@@ -11830,7 +11888,7 @@
         <v>22</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
@@ -11847,10 +11905,10 @@
         <v>43957</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D65" s="3">
         <v>43955</v>
@@ -11859,11 +11917,11 @@
         <v>22</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="2">
@@ -11878,10 +11936,10 @@
         <v>43957</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D66" s="3">
         <v>43955</v>
@@ -11890,7 +11948,7 @@
         <v>22</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
@@ -11898,7 +11956,7 @@
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2"/>
     </row>
@@ -11907,10 +11965,10 @@
         <v>43959</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D67" s="3">
         <v>43955</v>
@@ -11919,11 +11977,11 @@
         <v>22</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I67" s="4">
         <v>1</v>
@@ -11940,10 +11998,10 @@
         <v>43959</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D68" s="3">
         <v>43955</v>
@@ -11952,11 +12010,11 @@
         <v>22</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I68" s="4">
         <v>1</v>
@@ -11971,10 +12029,10 @@
         <v>43962</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D69" s="3">
         <v>43955</v>
@@ -11983,7 +12041,7 @@
         <v>22</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
@@ -12002,10 +12060,10 @@
         <v>43958</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D70" s="3">
         <v>43956</v>
@@ -12014,7 +12072,7 @@
         <v>22</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
@@ -12033,10 +12091,10 @@
         <v>43958</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D71" s="3">
         <v>43956</v>
@@ -12045,7 +12103,7 @@
         <v>22</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
@@ -12062,10 +12120,10 @@
         <v>43958</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D72" s="3">
         <v>43957</v>
@@ -12074,13 +12132,13 @@
         <v>22</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G72" s="45">
         <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="2">
@@ -12093,10 +12151,10 @@
         <v>43958</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D73" s="3">
         <v>43957</v>
@@ -12105,11 +12163,11 @@
         <v>22</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I73" s="4">
         <v>1</v>
@@ -12124,10 +12182,10 @@
         <v>43958</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D74" s="3">
         <v>43957</v>
@@ -12136,17 +12194,17 @@
         <v>22</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G74" s="45">
         <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2"/>
     </row>
@@ -12155,10 +12213,10 @@
         <v>43958</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D75" s="3">
         <v>43957</v>
@@ -12167,15 +12225,15 @@
         <v>22</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2"/>
     </row>
@@ -12184,10 +12242,10 @@
         <v>43958</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D76" s="3">
         <v>43957</v>
@@ -12196,13 +12254,13 @@
         <v>22</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G76" s="45">
         <v>1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="2">
@@ -12215,10 +12273,10 @@
         <v>43958</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D77" s="3">
         <v>43957</v>
@@ -12227,11 +12285,11 @@
         <v>22</v>
       </c>
       <c r="F77" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="2">
@@ -12244,10 +12302,10 @@
         <v>43958</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D78" s="3">
         <v>43957</v>
@@ -12256,11 +12314,11 @@
         <v>22</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="2">
@@ -12273,10 +12331,10 @@
         <v>43958</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D79" s="3">
         <v>43957</v>
@@ -12285,11 +12343,11 @@
         <v>22</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="2">
@@ -12302,10 +12360,10 @@
         <v>43958</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D80" s="3">
         <v>43957</v>
@@ -12314,11 +12372,11 @@
         <v>22</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="2">
@@ -12333,10 +12391,10 @@
         <v>43958</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D81" s="3">
         <v>43957</v>
@@ -12345,7 +12403,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
@@ -12353,7 +12411,7 @@
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="2"/>
     </row>
@@ -12362,10 +12420,10 @@
         <v>43959</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D82" s="3">
         <v>43958</v>
@@ -12374,15 +12432,15 @@
         <v>22</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="2"/>
     </row>
@@ -12391,10 +12449,10 @@
         <v>43959</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D83" s="3">
         <v>43958</v>
@@ -12403,11 +12461,11 @@
         <v>22</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I83" s="4">
         <v>1</v>
@@ -12422,10 +12480,10 @@
         <v>43959</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D84" s="3">
         <v>43958</v>
@@ -12434,7 +12492,7 @@
         <v>22</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
@@ -12451,10 +12509,10 @@
         <v>43959</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D85" s="3">
         <v>43958</v>
@@ -12463,7 +12521,7 @@
         <v>22</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
@@ -12480,10 +12538,10 @@
         <v>43959</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D86" s="3">
         <v>43958</v>
@@ -12492,7 +12550,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
@@ -12509,10 +12567,10 @@
         <v>43962</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D87" s="3">
         <v>43958</v>
@@ -12521,7 +12579,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
@@ -12538,10 +12596,10 @@
         <v>43962</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D88" s="3">
         <v>43959</v>
@@ -12550,7 +12608,7 @@
         <v>22</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
@@ -12567,10 +12625,10 @@
         <v>43962</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="D89" s="9">
         <v>43959</v>
@@ -12579,7 +12637,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
@@ -12598,10 +12656,10 @@
         <v>43962</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D90" s="3">
         <v>43959</v>
@@ -12610,11 +12668,11 @@
         <v>22</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="2">
@@ -12627,10 +12685,10 @@
         <v>43962</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D91" s="3">
         <v>43959</v>
@@ -12639,7 +12697,7 @@
         <v>22</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
@@ -12658,10 +12716,10 @@
         <v>43962</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D92" s="3">
         <v>43959</v>
@@ -12670,7 +12728,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
@@ -12680,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="2"/>
     </row>
@@ -12689,10 +12747,10 @@
         <v>43962</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D93" s="3">
         <v>43959</v>
@@ -12701,7 +12759,7 @@
         <v>22</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
@@ -12718,10 +12776,10 @@
         <v>43962</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D94" s="3">
         <v>43959</v>
@@ -12730,11 +12788,11 @@
         <v>22</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="2">
@@ -12747,10 +12805,10 @@
         <v>43962</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D95" s="3">
         <v>43959</v>
@@ -12759,11 +12817,11 @@
         <v>22</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="2">
@@ -12776,10 +12834,10 @@
         <v>43962</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D96" s="3">
         <v>43959</v>
@@ -12788,11 +12846,11 @@
         <v>22</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="2">
@@ -12805,10 +12863,10 @@
         <v>43962</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D97" s="3">
         <v>43959</v>
@@ -12817,15 +12875,15 @@
         <v>22</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="2"/>
     </row>
@@ -12834,10 +12892,10 @@
         <v>43962</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="D98" s="9">
         <v>43959</v>
@@ -12846,11 +12904,11 @@
         <v>22</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="2">
@@ -12865,10 +12923,10 @@
         <v>43962</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D99" s="3">
         <v>43959</v>
@@ -12877,11 +12935,11 @@
         <v>22</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="2">
@@ -12894,10 +12952,10 @@
         <v>43962</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D100" s="3">
         <v>43959</v>
@@ -12906,11 +12964,11 @@
         <v>22</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="2">
@@ -12923,10 +12981,10 @@
         <v>43962</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D101" s="3">
         <v>43959</v>
@@ -12935,11 +12993,11 @@
         <v>22</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="2">
@@ -12952,10 +13010,10 @@
         <v>43962</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D102" s="3">
         <v>43960</v>
@@ -12964,7 +13022,7 @@
         <v>22</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
@@ -12981,10 +13039,10 @@
         <v>43962</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D103" s="3">
         <v>43962</v>
@@ -12993,11 +13051,11 @@
         <v>22</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="2">
@@ -13010,10 +13068,10 @@
         <v>43962</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D104" s="3">
         <v>43962</v>
@@ -13022,11 +13080,11 @@
         <v>22</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="2">
@@ -13039,10 +13097,10 @@
         <v>43962</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="D105" s="9">
         <v>43962</v>
@@ -13051,11 +13109,11 @@
         <v>22</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="2">
@@ -13068,10 +13126,10 @@
         <v>43962</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D106" s="3">
         <v>43962</v>
@@ -13080,11 +13138,11 @@
         <v>22</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="2">
@@ -13097,10 +13155,10 @@
         <v>43962</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D107" s="3">
         <v>43962</v>
@@ -13109,11 +13167,11 @@
         <v>22</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="2">
@@ -13126,10 +13184,10 @@
         <v>43962</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="D108" s="9">
         <v>43962</v>
@@ -13138,11 +13196,11 @@
         <v>22</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="2">
@@ -13155,10 +13213,10 @@
         <v>43963</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="D109" s="3">
         <v>43962</v>
@@ -13167,15 +13225,15 @@
         <v>22</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="2"/>
     </row>
@@ -13184,10 +13242,10 @@
         <v>43963</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="D110" s="9">
         <v>43962</v>
@@ -13196,7 +13254,7 @@
         <v>22</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
@@ -13215,10 +13273,10 @@
         <v>43963</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D111" s="3">
         <v>43962</v>
@@ -13227,7 +13285,7 @@
         <v>22</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
@@ -13235,7 +13293,7 @@
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -13244,10 +13302,10 @@
         <v>43963</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="D112" s="9">
         <v>43962</v>
@@ -13256,7 +13314,7 @@
         <v>22</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
@@ -13273,10 +13331,10 @@
         <v>43963</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="D113" s="9">
         <v>43962</v>
@@ -13285,11 +13343,11 @@
         <v>22</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="2">
@@ -13302,10 +13360,10 @@
         <v>43965</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D114" s="9">
         <v>43958</v>
@@ -13314,11 +13372,11 @@
         <v>22</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="2">
@@ -13333,10 +13391,10 @@
         <v>43965</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D115" s="9">
         <v>43962</v>
@@ -13345,11 +13403,11 @@
         <v>22</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="2">
@@ -13362,10 +13420,10 @@
         <v>43965</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" s="9">
         <v>43962</v>
@@ -13374,13 +13432,13 @@
         <v>22</v>
       </c>
       <c r="F116" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G116" s="46">
         <v>1</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="2">
@@ -13393,10 +13451,10 @@
         <v>43965</v>
       </c>
       <c r="B117" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D117" s="9">
         <v>43963</v>
@@ -13405,11 +13463,11 @@
         <v>22</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="2">
@@ -13422,10 +13480,10 @@
         <v>43965</v>
       </c>
       <c r="B118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D118" s="9">
         <v>43964</v>
@@ -13434,11 +13492,11 @@
         <v>22</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="2">
@@ -13451,10 +13509,10 @@
         <v>43965</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D119" s="9">
         <v>43964</v>
@@ -13463,11 +13521,11 @@
         <v>22</v>
       </c>
       <c r="F119" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G119" s="46"/>
       <c r="H119" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="2">
@@ -13480,10 +13538,10 @@
         <v>43965</v>
       </c>
       <c r="B120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D120" s="9">
         <v>43964</v>
@@ -13492,11 +13550,11 @@
         <v>22</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="2">
@@ -13509,10 +13567,10 @@
         <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D121" s="9">
         <v>43964</v>
@@ -13521,15 +13579,15 @@
         <v>22</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="2"/>
     </row>
@@ -13538,10 +13596,10 @@
         <v>43965</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D122" s="9">
         <v>43964</v>
@@ -13550,7 +13608,7 @@
         <v>22</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
@@ -13567,10 +13625,10 @@
         <v>43965</v>
       </c>
       <c r="B123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D123" s="9">
         <v>43964</v>
@@ -13579,7 +13637,7 @@
         <v>22</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="8" t="s">
@@ -13587,7 +13645,7 @@
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="2"/>
     </row>
@@ -13596,10 +13654,10 @@
         <v>43965</v>
       </c>
       <c r="B124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D124" s="9">
         <v>43956</v>
@@ -13608,7 +13666,7 @@
         <v>22</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
@@ -13625,10 +13683,10 @@
         <v>43965</v>
       </c>
       <c r="B125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D125" s="9">
         <v>43957</v>
@@ -13637,15 +13695,15 @@
         <v>22</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="2"/>
     </row>
@@ -13654,10 +13712,10 @@
         <v>43965</v>
       </c>
       <c r="B126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D126" s="9">
         <v>43958</v>
@@ -13666,15 +13724,15 @@
         <v>22</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="2"/>
     </row>
@@ -13683,10 +13741,10 @@
         <v>43965</v>
       </c>
       <c r="B127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D127" s="9">
         <v>43958</v>
@@ -13695,15 +13753,15 @@
         <v>22</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="2"/>
     </row>
@@ -13712,10 +13770,10 @@
         <v>43965</v>
       </c>
       <c r="B128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D128" s="9">
         <v>43958</v>
@@ -13724,11 +13782,11 @@
         <v>22</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="2">
@@ -13741,10 +13799,10 @@
         <v>43965</v>
       </c>
       <c r="B129" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D129" s="9">
         <v>43959</v>
@@ -13753,13 +13811,13 @@
         <v>22</v>
       </c>
       <c r="F129" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G129" s="46">
         <v>1</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="2">
@@ -13772,10 +13830,10 @@
         <v>43965</v>
       </c>
       <c r="B130" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D130" s="9">
         <v>43962</v>
@@ -13784,11 +13842,11 @@
         <v>22</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="2">
@@ -13801,10 +13859,10 @@
         <v>43965</v>
       </c>
       <c r="B131" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D131" s="9">
         <v>43962</v>
@@ -13813,11 +13871,11 @@
         <v>22</v>
       </c>
       <c r="F131" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G131" s="46"/>
       <c r="H131" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="2">
@@ -13830,10 +13888,10 @@
         <v>43965</v>
       </c>
       <c r="B132" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" s="9">
         <v>43962</v>
@@ -13842,11 +13900,11 @@
         <v>22</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="2">
@@ -13859,10 +13917,10 @@
         <v>43965</v>
       </c>
       <c r="B133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D133" s="9">
         <v>43962</v>
@@ -13871,11 +13929,11 @@
         <v>22</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="2">
@@ -13888,10 +13946,10 @@
         <v>43965</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D134" s="9">
         <v>43962</v>
@@ -13900,11 +13958,11 @@
         <v>22</v>
       </c>
       <c r="F134" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G134" s="40"/>
       <c r="H134" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="2">
@@ -13917,10 +13975,10 @@
         <v>43966</v>
       </c>
       <c r="B135" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D135" s="9">
         <v>43965</v>
@@ -13929,11 +13987,11 @@
         <v>22</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="2">
@@ -13946,10 +14004,10 @@
         <v>43966</v>
       </c>
       <c r="B136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D136" s="9">
         <v>43965</v>
@@ -13958,11 +14016,11 @@
         <v>22</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="2">
@@ -13970,15 +14028,15 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>43966</v>
       </c>
-      <c r="B137" t="s">
-        <v>484</v>
+      <c r="B137" s="49" t="s">
+        <v>687</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D137" s="9">
         <v>43965</v>
@@ -13987,11 +14045,11 @@
         <v>22</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="2">
@@ -14006,10 +14064,10 @@
         <v>43966</v>
       </c>
       <c r="B138" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D138" s="9">
         <v>43966</v>
@@ -14018,7 +14076,7 @@
         <v>22</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8" t="s">
@@ -14035,10 +14093,10 @@
         <v>43970</v>
       </c>
       <c r="B139" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D139" s="9">
         <v>43969</v>
@@ -14047,15 +14105,15 @@
         <v>22</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" s="2"/>
     </row>
@@ -14064,10 +14122,10 @@
         <v>43970</v>
       </c>
       <c r="B140" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D140" s="9">
         <v>43966</v>
@@ -14076,7 +14134,7 @@
         <v>22</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8" t="s">
@@ -14093,10 +14151,10 @@
         <v>43970</v>
       </c>
       <c r="B141" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D141" s="9">
         <v>43965</v>
@@ -14105,7 +14163,7 @@
         <v>22</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8" t="s">
@@ -14122,10 +14180,10 @@
         <v>43970</v>
       </c>
       <c r="B142" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D142" s="9">
         <v>43966</v>
@@ -14134,7 +14192,7 @@
         <v>22</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8" t="s">
@@ -14153,10 +14211,10 @@
         <v>43970</v>
       </c>
       <c r="B143" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D143" s="9">
         <v>43966</v>
@@ -14165,7 +14223,7 @@
         <v>22</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8" t="s">
@@ -14184,10 +14242,10 @@
         <v>43970</v>
       </c>
       <c r="B144" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D144" s="9">
         <v>43965</v>
@@ -14196,7 +14254,7 @@
         <v>22</v>
       </c>
       <c r="F144" s="46" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G144" s="46">
         <v>1</v>
@@ -14215,10 +14273,10 @@
         <v>43970</v>
       </c>
       <c r="B145" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D145" s="9">
         <v>43966</v>
@@ -14227,7 +14285,7 @@
         <v>22</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="8" t="s">
@@ -14244,10 +14302,10 @@
         <v>43970</v>
       </c>
       <c r="B146" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D146" s="9">
         <v>43965</v>
@@ -14256,7 +14314,7 @@
         <v>22</v>
       </c>
       <c r="F146" s="46" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G146" s="46"/>
       <c r="H146" s="8" t="s">
@@ -14273,10 +14331,10 @@
         <v>43970</v>
       </c>
       <c r="B147" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D147" s="9">
         <v>43965</v>
@@ -14285,7 +14343,7 @@
         <v>22</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="8" t="s">
@@ -14302,10 +14360,10 @@
         <v>43970</v>
       </c>
       <c r="B148" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D148" s="9">
         <v>43969</v>
@@ -14314,11 +14372,11 @@
         <v>22</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="2">
@@ -14331,10 +14389,10 @@
         <v>43970</v>
       </c>
       <c r="B149" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D149" s="9">
         <v>43965</v>
@@ -14343,7 +14401,7 @@
         <v>22</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="8" t="s">
@@ -14360,10 +14418,10 @@
         <v>43970</v>
       </c>
       <c r="B150" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D150" s="9">
         <v>43964</v>
@@ -14372,11 +14430,11 @@
         <v>22</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="2">
@@ -14389,10 +14447,10 @@
         <v>43970</v>
       </c>
       <c r="B151" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D151" s="9">
         <v>43966</v>
@@ -14401,11 +14459,11 @@
         <v>22</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="2">
@@ -14418,10 +14476,10 @@
         <v>43970</v>
       </c>
       <c r="B152" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D152" s="9">
         <v>43966</v>
@@ -14430,7 +14488,7 @@
         <v>22</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="8" t="s">
@@ -14449,10 +14507,10 @@
         <v>43970</v>
       </c>
       <c r="B153" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D153" s="9">
         <v>43966</v>
@@ -14461,11 +14519,11 @@
         <v>22</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="2">
@@ -14478,10 +14536,10 @@
         <v>43970</v>
       </c>
       <c r="B154" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D154" s="9">
         <v>43966</v>
@@ -14490,11 +14548,11 @@
         <v>22</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="2">
@@ -14507,10 +14565,10 @@
         <v>43971</v>
       </c>
       <c r="B155" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D155" s="9">
         <v>43968</v>
@@ -14519,11 +14577,11 @@
         <v>22</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="2">
@@ -14536,10 +14594,10 @@
         <v>43971</v>
       </c>
       <c r="B156" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D156" s="9">
         <v>43968</v>
@@ -14548,7 +14606,7 @@
         <v>22</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8" t="s">
@@ -14565,10 +14623,10 @@
         <v>43971</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D157" s="9">
         <v>43968</v>
@@ -14577,11 +14635,11 @@
         <v>22</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="2">
@@ -14594,10 +14652,10 @@
         <v>43971</v>
       </c>
       <c r="B158" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D158" s="9">
         <v>43969</v>
@@ -14606,11 +14664,11 @@
         <v>22</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="2">
@@ -14623,10 +14681,10 @@
         <v>43971</v>
       </c>
       <c r="B159" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D159" s="9">
         <v>43969</v>
@@ -14635,13 +14693,13 @@
         <v>22</v>
       </c>
       <c r="F159" s="46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G159" s="46">
         <v>1</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="2">
@@ -14654,10 +14712,10 @@
         <v>43971</v>
       </c>
       <c r="B160" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D160" s="9">
         <v>43969</v>
@@ -14666,11 +14724,11 @@
         <v>22</v>
       </c>
       <c r="F160" s="46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G160" s="46"/>
       <c r="H160" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="2">
@@ -14683,10 +14741,10 @@
         <v>43971</v>
       </c>
       <c r="B161" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D161" s="9">
         <v>43970</v>
@@ -14695,11 +14753,11 @@
         <v>22</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="2">
@@ -14712,10 +14770,10 @@
         <v>43971</v>
       </c>
       <c r="B162" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D162" s="9">
         <v>43970</v>
@@ -14724,15 +14782,15 @@
         <v>22</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" s="2"/>
     </row>
@@ -14741,10 +14799,10 @@
         <v>43972</v>
       </c>
       <c r="B163" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D163" s="9">
         <v>43963</v>
@@ -14753,11 +14811,11 @@
         <v>22</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="2">
@@ -14770,10 +14828,10 @@
         <v>43972</v>
       </c>
       <c r="B164" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D164" s="9">
         <v>43970</v>
@@ -14782,11 +14840,11 @@
         <v>22</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I164" s="8">
         <v>1</v>
@@ -14801,10 +14859,10 @@
         <v>43972</v>
       </c>
       <c r="B165" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D165" s="9">
         <v>43971</v>
@@ -14813,13 +14871,13 @@
         <v>22</v>
       </c>
       <c r="F165" s="46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G165" s="46">
         <v>1</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="2">
@@ -14832,10 +14890,10 @@
         <v>43972</v>
       </c>
       <c r="B166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D166" s="9">
         <v>43971</v>
@@ -14844,11 +14902,11 @@
         <v>22</v>
       </c>
       <c r="F166" s="46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G166" s="46"/>
       <c r="H166" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="2">
@@ -14861,10 +14919,10 @@
         <v>43973</v>
       </c>
       <c r="B167" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D167" s="9">
         <v>43970</v>
@@ -14873,11 +14931,11 @@
         <v>22</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8">
@@ -14890,10 +14948,10 @@
         <v>43976</v>
       </c>
       <c r="B168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D168" s="9">
         <v>43972</v>
@@ -14902,11 +14960,11 @@
         <v>22</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8">
@@ -14919,10 +14977,10 @@
         <v>43977</v>
       </c>
       <c r="B169" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D169" s="9">
         <v>43972</v>
@@ -14931,13 +14989,13 @@
         <v>22</v>
       </c>
       <c r="F169" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G169" s="46">
         <v>1</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8">
@@ -14950,10 +15008,10 @@
         <v>43977</v>
       </c>
       <c r="B170" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D170" s="9">
         <v>43972</v>
@@ -14962,11 +15020,11 @@
         <v>22</v>
       </c>
       <c r="F170" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G170" s="46"/>
       <c r="H170" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8">
@@ -14979,10 +15037,10 @@
         <v>43977</v>
       </c>
       <c r="B171" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D171" s="9">
         <v>43972</v>
@@ -14991,11 +15049,11 @@
         <v>22</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8">
@@ -15008,10 +15066,10 @@
         <v>43977</v>
       </c>
       <c r="B172" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D172" s="9">
         <v>43972</v>
@@ -15020,11 +15078,11 @@
         <v>22</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I172" s="8"/>
       <c r="J172" s="8">
@@ -15037,10 +15095,10 @@
         <v>43977</v>
       </c>
       <c r="B173" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D173" s="9">
         <v>43973</v>
@@ -15049,7 +15107,7 @@
         <v>22</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8" t="s">
@@ -15066,10 +15124,10 @@
         <v>43977</v>
       </c>
       <c r="B174" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D174" s="9">
         <v>43973</v>
@@ -15078,11 +15136,11 @@
         <v>22</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I174" s="8"/>
       <c r="J174" s="8">
@@ -15095,10 +15153,10 @@
         <v>43977</v>
       </c>
       <c r="B175" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D175" s="9">
         <v>43976</v>
@@ -15107,7 +15165,7 @@
         <v>22</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8" t="s">
@@ -15116,7 +15174,9 @@
       <c r="I175" s="8">
         <v>1</v>
       </c>
-      <c r="J175" s="8"/>
+      <c r="J175" s="8">
+        <v>0</v>
+      </c>
       <c r="K175" s="8"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -15124,10 +15184,10 @@
         <v>43977</v>
       </c>
       <c r="B176" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D176" s="9">
         <v>43976</v>
@@ -15136,14 +15196,16 @@
         <v>22</v>
       </c>
       <c r="F176" s="46" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G176" s="46"/>
       <c r="H176" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
+      <c r="J176" s="8">
+        <v>0</v>
+      </c>
       <c r="K176" s="8"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
@@ -15151,10 +15213,10 @@
         <v>43978</v>
       </c>
       <c r="B177" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D177" s="9">
         <v>43973</v>
@@ -15163,14 +15225,16 @@
         <v>22</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G177" s="8"/>
       <c r="H177" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="8">
+        <v>0</v>
+      </c>
       <c r="K177" s="8"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
@@ -15178,10 +15242,10 @@
         <v>43978</v>
       </c>
       <c r="B178" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D178" s="9">
         <v>43976</v>
@@ -15190,16 +15254,18 @@
         <v>22</v>
       </c>
       <c r="F178" s="46" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G178" s="46">
         <v>1</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
+      <c r="J178" s="8">
+        <v>0</v>
+      </c>
       <c r="K178" s="8"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
@@ -15207,10 +15273,10 @@
         <v>43978</v>
       </c>
       <c r="B179" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D179" s="9">
         <v>43976</v>
@@ -15219,14 +15285,16 @@
         <v>22</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
+      <c r="J179" s="8">
+        <v>0</v>
+      </c>
       <c r="K179" s="8"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
@@ -15234,10 +15302,10 @@
         <v>43978</v>
       </c>
       <c r="B180" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D180" s="9">
         <v>43976</v>
@@ -15246,14 +15314,16 @@
         <v>22</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
+      <c r="J180" s="8">
+        <v>1</v>
+      </c>
       <c r="K180" s="8"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -15261,10 +15331,10 @@
         <v>43978</v>
       </c>
       <c r="B181" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D181" s="9">
         <v>43973</v>
@@ -15273,14 +15343,16 @@
         <v>22</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G181" s="8"/>
       <c r="H181" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
+      <c r="J181" s="8">
+        <v>0</v>
+      </c>
       <c r="K181" s="8"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -15288,10 +15360,10 @@
         <v>43978</v>
       </c>
       <c r="B182" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D182" s="9">
         <v>43977</v>
@@ -15300,14 +15372,16 @@
         <v>22</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
+      <c r="J182" s="8">
+        <v>0</v>
+      </c>
       <c r="K182" s="8"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
@@ -15315,10 +15389,10 @@
         <v>43978</v>
       </c>
       <c r="B183" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D183" s="9">
         <v>43977</v>
@@ -15327,14 +15401,16 @@
         <v>22</v>
       </c>
       <c r="F183" s="46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G183" s="46"/>
       <c r="H183" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
+      <c r="J183" s="8">
+        <v>0</v>
+      </c>
       <c r="K183" s="8"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
@@ -15342,10 +15418,10 @@
         <v>43978</v>
       </c>
       <c r="B184" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D184" s="9">
         <v>43977</v>
@@ -15354,7 +15430,7 @@
         <v>22</v>
       </c>
       <c r="F184" s="46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G184" s="46">
         <v>1</v>
@@ -15363,7 +15439,9 @@
         <v>28</v>
       </c>
       <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
+      <c r="J184" s="8">
+        <v>0</v>
+      </c>
       <c r="K184" s="8"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
@@ -15371,10 +15449,10 @@
         <v>43980</v>
       </c>
       <c r="B185" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D185" s="9">
         <v>43979</v>
@@ -15383,14 +15461,16 @@
         <v>22</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="J185" s="8">
+        <v>0</v>
+      </c>
       <c r="K185" s="8"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -15398,10 +15478,10 @@
         <v>43980</v>
       </c>
       <c r="B186" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D186" s="9">
         <v>43979</v>
@@ -15410,14 +15490,16 @@
         <v>22</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="J186" s="8">
+        <v>0</v>
+      </c>
       <c r="K186" s="8"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
@@ -15425,10 +15507,10 @@
         <v>43980</v>
       </c>
       <c r="B187" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D187" s="9">
         <v>43979</v>
@@ -15437,14 +15519,16 @@
         <v>22</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
+      <c r="J187" s="8">
+        <v>0</v>
+      </c>
       <c r="K187" s="8"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -15452,10 +15536,10 @@
         <v>43980</v>
       </c>
       <c r="B188" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D188" s="9">
         <v>43979</v>
@@ -15464,14 +15548,16 @@
         <v>22</v>
       </c>
       <c r="F188" s="46" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G188" s="46"/>
       <c r="H188" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="J188" s="8">
+        <v>0</v>
+      </c>
       <c r="K188" s="8"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
@@ -15479,10 +15565,10 @@
         <v>43983</v>
       </c>
       <c r="B189" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D189" s="9">
         <v>43979</v>
@@ -15491,14 +15577,16 @@
         <v>22</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="J189" s="8">
+        <v>1</v>
+      </c>
       <c r="K189" s="8"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
@@ -15506,10 +15594,10 @@
         <v>43983</v>
       </c>
       <c r="B190" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D190" s="9">
         <v>43979</v>
@@ -15518,14 +15606,16 @@
         <v>22</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="8">
+        <v>0</v>
+      </c>
       <c r="K190" s="8"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
@@ -15533,10 +15623,10 @@
         <v>43983</v>
       </c>
       <c r="B191" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D191" s="9">
         <v>43979</v>
@@ -15545,16 +15635,18 @@
         <v>22</v>
       </c>
       <c r="F191" s="46" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G191" s="46">
         <v>1</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="8">
+        <v>0</v>
+      </c>
       <c r="K191" s="8"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
@@ -15562,10 +15654,10 @@
         <v>43983</v>
       </c>
       <c r="B192" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D192" s="9">
         <v>43979</v>
@@ -15574,14 +15666,16 @@
         <v>22</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="J192" s="8">
+        <v>0</v>
+      </c>
       <c r="K192" s="8"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -15589,10 +15683,10 @@
         <v>43983</v>
       </c>
       <c r="B193" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D193" s="9">
         <v>43980</v>
@@ -15601,14 +15695,16 @@
         <v>22</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="8">
+        <v>0</v>
+      </c>
       <c r="K193" s="8"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
@@ -15616,10 +15712,10 @@
         <v>43983</v>
       </c>
       <c r="B194" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D194" s="9">
         <v>43979</v>
@@ -15628,14 +15724,16 @@
         <v>22</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
+      <c r="J194" s="8">
+        <v>0</v>
+      </c>
       <c r="K194" s="8"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
@@ -15643,10 +15741,10 @@
         <v>43983</v>
       </c>
       <c r="B195" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D195" s="9">
         <v>43980</v>
@@ -15655,14 +15753,16 @@
         <v>22</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
+      <c r="J195" s="8">
+        <v>0</v>
+      </c>
       <c r="K195" s="8"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
@@ -15670,10 +15770,10 @@
         <v>43983</v>
       </c>
       <c r="B196" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D196" s="9">
         <v>43980</v>
@@ -15682,14 +15782,16 @@
         <v>22</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
+      <c r="J196" s="8">
+        <v>0</v>
+      </c>
       <c r="K196" s="8"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
@@ -15697,10 +15799,10 @@
         <v>43983</v>
       </c>
       <c r="B197" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D197" s="9">
         <v>43980</v>
@@ -15709,14 +15811,16 @@
         <v>22</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
+      <c r="J197" s="8">
+        <v>0</v>
+      </c>
       <c r="K197" s="8"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
@@ -15724,10 +15828,10 @@
         <v>43983</v>
       </c>
       <c r="B198" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D198" s="9">
         <v>43982</v>
@@ -15736,14 +15840,16 @@
         <v>22</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
+      <c r="J198" s="8">
+        <v>0</v>
+      </c>
       <c r="K198" s="8"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
@@ -15751,30 +15857,90 @@
         <v>43983</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D199" s="9">
         <v>43983</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
+      <c r="J199" s="8">
+        <v>0</v>
+      </c>
       <c r="K199" s="8"/>
     </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D200" s="9">
+        <v>43984</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8">
+        <v>0</v>
+      </c>
+      <c r="K200" s="8"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D201" s="9">
+        <v>43984</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8">
+        <v>0</v>
+      </c>
+      <c r="K201" s="8"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b/UAX0n0cyxyOteWq955DBVo91d/zPgkjUw6jTLJSFyUWC7NYdAq7+Xfo9CWItD371N/WF4hNE/S/Uy8W4pnWQ==" saltValue="zlvD1dHq7wE4XRceOOXhbw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/aRVhI+y2gc4IEHW1mlx+61g1PghXZtlalpGf+6fT8WhdlXqfJIq1CFTmeAzEy4d0/A85ZGCPaGZs+SbvAsCOA==" saltValue="EKWkGFYUIX9dqzTM1Jn1+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -15786,7 +15952,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:B123"/>
+  <dimension ref="A3:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -15794,7 +15960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -15802,15 +15968,15 @@
   <sheetData>
     <row r="3" spans="1:2" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -15839,32 +16005,32 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" s="13">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" s="19"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -15891,7 +16057,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B25" s="13">
         <v>16</v>
@@ -15899,21 +16065,21 @@
     </row>
     <row r="40" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" s="19"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B42" s="13">
         <v>5</v>
@@ -15929,7 +16095,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="13">
         <v>6</v>
@@ -15945,7 +16111,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B46" s="13">
         <v>9</v>
@@ -15953,15 +16119,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B47" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="13">
         <v>12</v>
@@ -15988,41 +16154,41 @@
         <v>28</v>
       </c>
       <c r="B51" s="13">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="13">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -16032,16 +16198,16 @@
     </row>
     <row r="80" spans="1:2" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B80" s="35"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -16373,15 +16539,23 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="15" t="s">
-        <v>382</v>
+      <c r="A123" s="37">
+        <v>43984</v>
       </c>
       <c r="B123" s="13">
-        <v>198</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B124" s="13">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GuT/MZWL6tZ6Da9gimzq5wPohq/1c/X4Pdd+HZA4zkyhl1OLqW6Oz0YZZ9bD6J1QAwWrk1ZvSHmmD6lvN7T/yQ==" saltValue="EuTqxJHRQekgNPkGB7W74A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n7lvjjxb+u0gwtSfrEOOqFhgm8ZcGsZKNiJrVbZpS+ESCPDePGfSHQLrKmuOUb2oaXMdOwOxU0PLmYshN0XbiQ==" saltValue="Wr4UdLu49eyIIm+6Yhf+Uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
@@ -16397,7 +16571,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wxl9CHHvfIxqLsrgpcGts81oW1YLVUcNLxPh6m1FF11rMwWtESMmtjofuEV4/gN8s6MW4unVg268DPrtmTp0Kg==" saltValue="zGL/LvkaSrc8IjfSR5klCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="whK1DWqkkTUQVFnxCpbk6Acpm672GhfDnWZH7pGKxTR5rrEJGLD8XHEauzAJNomomX91dcWPCAHUVoO05jLTQw==" saltValue="+1FK6RZ7+J5yA3muAle0QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16425,13 +16599,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>1</v>
@@ -16440,13 +16614,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -16472,7 +16646,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -16498,7 +16672,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -16506,10 +16680,10 @@
         <v>43938</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>393</v>
       </c>
       <c r="D4" s="29">
         <v>43937</v>
@@ -16518,13 +16692,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -16532,7 +16706,7 @@
         <v>43938</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" s="31">
         <v>253</v>
@@ -16544,13 +16718,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -16558,25 +16732,25 @@
         <v>43885</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D6" s="3">
         <v>43883</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -16696,13 +16870,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>1</v>
@@ -16711,25 +16885,25 @@
         <v>2</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -16737,13 +16911,13 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -16751,13 +16925,13 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -16765,13 +16939,13 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -16779,13 +16953,13 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
